--- a/Project Documentation/RACIMatrix.xlsx
+++ b/Project Documentation/RACIMatrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unoff\Documents\Fall2024\Capstone\GitProject\Team-CollaborativeWebsite\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C3BE54-3AF7-4F3F-A25F-555A4BF43775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BE8E95-0B87-4E55-9A19-C36994E04210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="11700" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -377,7 +377,7 @@
         <color rgb="FF31216B"/>
         <rFont val="IBM Plex Sans"/>
       </rPr>
-      <t xml:space="preserve">Task 11: </t>
+      <t xml:space="preserve">Task 9: </t>
     </r>
     <r>
       <rPr>
@@ -388,26 +388,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF31216B"/>
-        <rFont val="IBM Plex Sans"/>
-      </rPr>
-      <t xml:space="preserve">Task 9: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF31216B"/>
-        <rFont val="IBM Plex Sans"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -436,6 +416,66 @@
       </rPr>
       <t xml:space="preserve">
 Video Walkthrough</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF31216B"/>
+        <rFont val="IBM Plex Sans"/>
+      </rPr>
+      <t xml:space="preserve">Task 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF31216B"/>
+        <rFont val="IBM Plex Sans"/>
+      </rPr>
+      <t xml:space="preserve">
+Entity Relationship Diagram</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF31216B"/>
+        <rFont val="IBM Plex Sans"/>
+      </rPr>
+      <t xml:space="preserve">Task 12: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF31216B"/>
+        <rFont val="IBM Plex Sans"/>
+      </rPr>
+      <t xml:space="preserve">
+Screen Sequence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF31216B"/>
+        <rFont val="IBM Plex Sans"/>
+      </rPr>
+      <t xml:space="preserve">Task 13: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF31216B"/>
+        <rFont val="IBM Plex Sans"/>
+      </rPr>
+      <t xml:space="preserve">
+Project Management Plan</t>
     </r>
   </si>
 </sst>
@@ -971,7 +1011,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFDEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5EDEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEBED"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE9BF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFDEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5EDEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEBED"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE9BF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1223,7 +1319,7 @@
   <dimension ref="B1:U979"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1472,7 +1568,7 @@
     </row>
     <row r="14" spans="2:21" ht="68" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>1</v>
@@ -1486,7 +1582,7 @@
     </row>
     <row r="15" spans="2:21" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>2</v>
@@ -1500,34 +1596,60 @@
     </row>
     <row r="16" spans="2:21" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="2:5" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2486,6 +2608,34 @@
     <mergeCell ref="K6:M8"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:E16">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:E17">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:E18">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
@@ -2500,7 +2650,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:E16" xr:uid="{2E54D180-CF1E-3D4D-A665-DC78AF17E434}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:E18" xr:uid="{2E54D180-CF1E-3D4D-A665-DC78AF17E434}">
       <formula1>"R, A, C, I"</formula1>
     </dataValidation>
   </dataValidations>
